--- a/Template.xlsx
+++ b/Template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="17">
   <si>
     <t>A</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -43,6 +43,46 @@
   </si>
   <si>
     <t>G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>男</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>良</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>差</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>女</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>区1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高中</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -223,25 +263,6 @@
           </c:spPr>
           <c:dPt>
             <c:idx val="2"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="009999"/>
-              </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw blurRad="177800" dist="20000" dir="5400000" sx="60000" sy="60000" rotWithShape="0">
-                  <a:sysClr val="window" lastClr="FFFFFF">
-                    <a:alpha val="41000"/>
-                  </a:sysClr>
-                </a:outerShdw>
-              </a:effectLst>
-              <a:scene3d>
-                <a:camera prst="orthographicFront"/>
-                <a:lightRig rig="threePt" dir="t"/>
-              </a:scene3d>
-              <a:sp3d>
-                <a:bevelT w="0" h="0"/>
-              </a:sp3d>
-            </c:spPr>
           </c:dPt>
           <c:val>
             <c:numRef>
@@ -264,24 +285,24 @@
         </c:ser>
         <c:gapWidth val="234"/>
         <c:overlap val="-10"/>
-        <c:axId val="45851392"/>
-        <c:axId val="81433728"/>
+        <c:axId val="88090496"/>
+        <c:axId val="88092032"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="45851392"/>
+        <c:axId val="88090496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81433728"/>
+        <c:crossAx val="88092032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="81433728"/>
+        <c:axId val="88092032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -289,20 +310,19 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="45851392"/>
+        <c:crossAx val="88090496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -318,8 +338,8 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="4.9793008217882691E-2"/>
-          <c:y val="3.5015567188179691E-2"/>
+          <c:x val="4.9793008217882705E-2"/>
+          <c:y val="3.5015567188179698E-2"/>
           <c:w val="0.87097875815676573"/>
           <c:h val="0.891785510051467"/>
         </c:manualLayout>
@@ -341,7 +361,7 @@
               <c:layout>
                 <c:manualLayout>
                   <c:x val="0"/>
-                  <c:y val="-5.9590316573556797E-2"/>
+                  <c:y val="-5.9590316573556804E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="inEnd"/>
@@ -351,7 +371,7 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="1.3647219379051519E-3"/>
+                  <c:x val="1.3647219379051521E-3"/>
                   <c:y val="-5.2141527001862212E-2"/>
                 </c:manualLayout>
               </c:layout>
@@ -362,8 +382,8 @@
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="2.7294438758103039E-3"/>
-                  <c:y val="-3.9726877715704531E-2"/>
+                  <c:x val="2.7294438758103047E-3"/>
+                  <c:y val="-3.9726877715704538E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="inEnd"/>
@@ -374,7 +394,7 @@
               <c:layout>
                 <c:manualLayout>
                   <c:x val="0"/>
-                  <c:y val="-5.7107386716325287E-2"/>
+                  <c:y val="-5.7107386716325301E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="inEnd"/>
@@ -385,7 +405,7 @@
               <c:layout>
                 <c:manualLayout>
                   <c:x val="0"/>
-                  <c:y val="-5.2141527001862198E-2"/>
+                  <c:y val="-5.2141527001862191E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="inEnd"/>
@@ -395,8 +415,8 @@
               <c:idx val="5"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="5.0039226332442959E-17"/>
-                  <c:y val="-6.2073246430788327E-2"/>
+                  <c:x val="5.0039226332443008E-17"/>
+                  <c:y val="-6.2073246430788334E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="inEnd"/>
@@ -417,8 +437,8 @@
               <c:idx val="7"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-1.3647219379051519E-3"/>
-                  <c:y val="-5.9590316573556887E-2"/>
+                  <c:x val="-1.3647219379051521E-3"/>
+                  <c:y val="-5.9590316573556894E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="inEnd"/>
@@ -428,8 +448,8 @@
               <c:idx val="8"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="1.3647219379051519E-3"/>
-                  <c:y val="-5.7107386716325273E-2"/>
+                  <c:x val="1.3647219379051521E-3"/>
+                  <c:y val="-5.710738671632528E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="inEnd"/>
@@ -439,8 +459,8 @@
               <c:idx val="9"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="1.3647219379051519E-3"/>
-                  <c:y val="-4.717566728739913E-2"/>
+                  <c:x val="1.3647219379051521E-3"/>
+                  <c:y val="-4.7175667287399123E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="inEnd"/>
@@ -462,7 +482,7 @@
               <c:layout>
                 <c:manualLayout>
                   <c:x val="0"/>
-                  <c:y val="-6.4556176288019865E-2"/>
+                  <c:y val="-6.4556176288019879E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="inEnd"/>
@@ -472,8 +492,8 @@
               <c:idx val="12"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-1.3647219379052519E-3"/>
-                  <c:y val="-5.9590316573556797E-2"/>
+                  <c:x val="-1.3647219379052521E-3"/>
+                  <c:y val="-5.9590316573556804E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="inEnd"/>
@@ -600,24 +620,24 @@
         </c:dLbls>
         <c:gapWidth val="189"/>
         <c:overlap val="59"/>
-        <c:axId val="18473344"/>
-        <c:axId val="18474880"/>
+        <c:axId val="88838528"/>
+        <c:axId val="88840064"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="18473344"/>
+        <c:axId val="88838528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="18474880"/>
+        <c:crossAx val="88840064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="18474880"/>
+        <c:axId val="88840064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -626,7 +646,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="18473344"/>
+        <c:crossAx val="88838528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -639,8 +659,8 @@
           <c:yMode val="edge"/>
           <c:x val="0.93305426381579482"/>
           <c:y val="0.9196506270049577"/>
-          <c:w val="5.7392682618869165E-2"/>
-          <c:h val="4.4898605551401044E-2"/>
+          <c:w val="5.7392682618869179E-2"/>
+          <c:h val="4.4898605551401058E-2"/>
         </c:manualLayout>
       </c:layout>
     </c:legend>
@@ -648,7 +668,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1084,7 +1104,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -1212,12 +1232,475 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A3:J26"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetData>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3">
+        <v>200</v>
+      </c>
+      <c r="F3">
+        <v>900000</v>
+      </c>
+      <c r="G3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3">
+        <f>E3+E11+E19</f>
+        <v>600</v>
+      </c>
+      <c r="J3">
+        <f>F3+F11+F19</f>
+        <v>2700000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4">
+        <v>100</v>
+      </c>
+      <c r="F4">
+        <v>900000</v>
+      </c>
+      <c r="G4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4">
+        <f t="shared" ref="I4:J4" si="0">E4+E12+E20</f>
+        <v>300</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="0"/>
+        <v>2700000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5">
+        <v>100</v>
+      </c>
+      <c r="F5">
+        <v>900000</v>
+      </c>
+      <c r="G5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5">
+        <f t="shared" ref="I5:J5" si="1">E5+E13+E21</f>
+        <v>300</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="1"/>
+        <v>2700000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6">
+        <v>100</v>
+      </c>
+      <c r="F6">
+        <v>900000</v>
+      </c>
+      <c r="G6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6">
+        <f t="shared" ref="I6:J6" si="2">E6+E14+E22</f>
+        <v>300</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="2"/>
+        <v>2700000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7">
+        <v>100</v>
+      </c>
+      <c r="F7">
+        <v>900000</v>
+      </c>
+      <c r="G7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7">
+        <f t="shared" ref="I7:J7" si="3">E7+E15+E23</f>
+        <v>300</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="3"/>
+        <v>2700000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8">
+        <v>100</v>
+      </c>
+      <c r="F8">
+        <v>900000</v>
+      </c>
+      <c r="G8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8">
+        <f t="shared" ref="I8:J8" si="4">E8+E16+E24</f>
+        <v>300</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="4"/>
+        <v>2700000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9">
+        <v>100</v>
+      </c>
+      <c r="F9">
+        <v>900000</v>
+      </c>
+      <c r="G9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9">
+        <f t="shared" ref="I9:J9" si="5">E9+E17+E25</f>
+        <v>300</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="5"/>
+        <v>2700000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10">
+        <v>100</v>
+      </c>
+      <c r="F10">
+        <v>900000</v>
+      </c>
+      <c r="G10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I10">
+        <f t="shared" ref="I10:J10" si="6">E10+E18+E26</f>
+        <v>300</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="6"/>
+        <v>2700000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11">
+        <v>300</v>
+      </c>
+      <c r="F11">
+        <v>900000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="C12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12">
+        <v>100</v>
+      </c>
+      <c r="F12">
+        <v>900000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13">
+        <v>100</v>
+      </c>
+      <c r="F13">
+        <v>900000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14">
+        <v>100</v>
+      </c>
+      <c r="F14">
+        <v>900000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="C15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15">
+        <v>100</v>
+      </c>
+      <c r="F15">
+        <v>900000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="C16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16">
+        <v>100</v>
+      </c>
+      <c r="F16">
+        <v>900000</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="C17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17">
+        <v>100</v>
+      </c>
+      <c r="F17">
+        <v>900000</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6">
+      <c r="C18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18">
+        <v>100</v>
+      </c>
+      <c r="F18">
+        <v>900000</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6">
+      <c r="B19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19">
+        <v>100</v>
+      </c>
+      <c r="F19">
+        <v>900000</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6">
+      <c r="C20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20">
+        <v>100</v>
+      </c>
+      <c r="F20">
+        <v>900000</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6">
+      <c r="C21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21">
+        <v>100</v>
+      </c>
+      <c r="F21">
+        <v>900000</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6">
+      <c r="C22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22">
+        <v>100</v>
+      </c>
+      <c r="F22">
+        <v>900000</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6">
+      <c r="C23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23">
+        <v>100</v>
+      </c>
+      <c r="F23">
+        <v>900000</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6">
+      <c r="C24" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24">
+        <v>100</v>
+      </c>
+      <c r="F24">
+        <v>900000</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6">
+      <c r="C25" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25">
+        <v>100</v>
+      </c>
+      <c r="F25">
+        <v>900000</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6">
+      <c r="C26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26">
+        <v>100</v>
+      </c>
+      <c r="F26">
+        <v>900000</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
